--- a/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a75_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a75_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-4200.1058738280835</v>
+        <v>-1726.3126788491722</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>8.882671417141983</v>
       </c>
       <c r="D2">
-        <v>2606.159594922</v>
+        <v>5599.830896778</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4172.7930095692755</v>
+        <v>-1740.0765152806462</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>8.027488494657971</v>
       </c>
       <c r="D3">
-        <v>2598.511129941</v>
+        <v>5523.194639918</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-4198.061469013668</v>
+        <v>-1732.2668486303287</v>
       </c>
       <c r="C4">
-        <v>8.665854070846578e-14</v>
+        <v>9.519167611773694</v>
       </c>
       <c r="D4">
-        <v>2597.919975526</v>
+        <v>5488.438084554</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-4184.880359518008</v>
+        <v>-1731.213773381394</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>10.14910946044649</v>
       </c>
       <c r="D5">
-        <v>2597.451929788</v>
+        <v>5505.225268805</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-4181.370874039599</v>
+        <v>-1743.143823798119</v>
       </c>
       <c r="C6">
-        <v>4.350222590488601e-14</v>
+        <v>7.643987046190622</v>
       </c>
       <c r="D6">
-        <v>2593.466969903</v>
+        <v>5549.293836621</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-4160.305886685349</v>
+        <v>-1719.7767196432865</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>7.781098670675725</v>
       </c>
       <c r="D7">
-        <v>2593.83035247</v>
+        <v>5530.258955881</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-4191.464355346141</v>
+        <v>-1732.690555625326</v>
       </c>
       <c r="C8">
-        <v>2.169873401435137e-14</v>
+        <v>8.88929688644903</v>
       </c>
       <c r="D8">
-        <v>2596.329186751</v>
+        <v>5538.292544806</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-4152.452588277491</v>
+        <v>-1716.7979290041626</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>9.388813050529913</v>
       </c>
       <c r="D9">
-        <v>2600.448329343</v>
+        <v>5508.74755741</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-4171.712295451467</v>
+        <v>-1730.9641896387025</v>
       </c>
       <c r="C10">
-        <v>4.360294465965707e-14</v>
+        <v>7.424981119889535</v>
       </c>
       <c r="D10">
-        <v>2599.746649248</v>
+        <v>5550.719144293</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-4207.280722184274</v>
+        <v>-1743.1617425024665</v>
       </c>
       <c r="C11">
-        <v>6.485148687445286e-14</v>
+        <v>8.753854342914902</v>
       </c>
       <c r="D11">
-        <v>2593.826308768</v>
+        <v>5541.731702889</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
